--- a/stock_predictor_ai/data/company_sentiment_ready/CAG_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/CAG_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11415"/>
+  <dimension ref="A1:B11469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91761,6 +91761,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11416">
+      <c r="A11416" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B11416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11417">
+      <c r="A11417" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B11417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11418">
+      <c r="A11418" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B11418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11419">
+      <c r="A11419" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11420">
+      <c r="A11420" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B11420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11421">
+      <c r="A11421" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B11421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11422">
+      <c r="A11422" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B11422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11423">
+      <c r="A11423" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B11423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11424">
+      <c r="A11424" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B11424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11425">
+      <c r="A11425" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B11425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11426">
+      <c r="A11426" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B11426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11427">
+      <c r="A11427" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B11427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11428">
+      <c r="A11428" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B11428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11429">
+      <c r="A11429" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B11429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11430">
+      <c r="A11430" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B11430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11431">
+      <c r="A11431" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B11431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11432">
+      <c r="A11432" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B11432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11433">
+      <c r="A11433" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B11433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11434">
+      <c r="A11434" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B11434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11435">
+      <c r="A11435" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B11435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11436">
+      <c r="A11436" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B11436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11437">
+      <c r="A11437" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B11437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11438">
+      <c r="A11438" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B11438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11439">
+      <c r="A11439" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B11439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11440">
+      <c r="A11440" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B11440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11441">
+      <c r="A11441" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B11441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11442">
+      <c r="A11442" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B11442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11443">
+      <c r="A11443" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B11443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11444">
+      <c r="A11444" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B11444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11445">
+      <c r="A11445" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B11445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11446">
+      <c r="A11446" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B11446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11447">
+      <c r="A11447" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B11447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11448">
+      <c r="A11448" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B11448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11449">
+      <c r="A11449" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B11449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11450">
+      <c r="A11450" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B11450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11451">
+      <c r="A11451" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B11451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11452">
+      <c r="A11452" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B11452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11453">
+      <c r="A11453" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B11453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11454">
+      <c r="A11454" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B11454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11455">
+      <c r="A11455" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B11455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11456">
+      <c r="A11456" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B11456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11457">
+      <c r="A11457" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B11457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11458">
+      <c r="A11458" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B11458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11459">
+      <c r="A11459" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B11459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11460">
+      <c r="A11460" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B11460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11461">
+      <c r="A11461" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B11461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11462">
+      <c r="A11462" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B11462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11463">
+      <c r="A11463" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B11463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11464">
+      <c r="A11464" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B11464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11465">
+      <c r="A11465" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B11465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11466">
+      <c r="A11466" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B11466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11467">
+      <c r="A11467" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B11467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11468">
+      <c r="A11468" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B11468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11469">
+      <c r="A11469" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B11469" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
